--- a/Bank System DB.xlsx
+++ b/Bank System DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\University\Semester 2\Advanced Programming Workshop\Projects\HAT_Bank_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>DB Name</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>AccountID</t>
+  </si>
+  <si>
+    <t>TransactionID</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,6 +584,9 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
